--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1254516-C8D3-4D1C-8D4B-BCACC679EA1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4FF27-3BB1-4676-ACA0-DD44C21A3566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Solver</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>2mm</t>
+  </si>
+  <si>
+    <t>Attempt free mapped meshing</t>
+  </si>
+  <si>
+    <t>Checked</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F0B0A2-EC03-4042-828B-335BD011D228}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{175830FE-B5AB-4623-8527-55E14DF5BCE8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F0B0A2-EC03-4042-828B-335BD011D228}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{175830FE-B5AB-4623-8527-55E14DF5BCE8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AB9C58CE-CD25-4D88-B8B5-061D6FA14536}" name="Category"/>
     <tableColumn id="2" xr3:uid="{A270800C-DAC5-4318-AA7D-2AE6CB3856C6}" name="Options"/>
@@ -439,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A86F01-F976-4B05-A9FF-75CFF3B8DB35}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,6 +533,17 @@
       </c>
       <c r="C7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4FF27-3BB1-4676-ACA0-DD44C21A3566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16BC12D-9D2A-49C3-BC41-D3F70D4F6750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16BC12D-9D2A-49C3-BC41-D3F70D4F6750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA363654-3F7B-40F3-B2D9-96476E79539E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
@@ -25,63 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>Solver</t>
-  </si>
-  <si>
-    <t>Analysis Type</t>
-  </si>
-  <si>
-    <t>2D Solid Option</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Selection</t>
   </si>
   <si>
-    <t>NX Nastran</t>
-  </si>
-  <si>
-    <t>Structural</t>
-  </si>
-  <si>
-    <t>XY Plane, X Axis</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>New FEM</t>
-  </si>
-  <si>
-    <t>2D Mesh</t>
-  </si>
-  <si>
-    <t>Element Type</t>
-  </si>
-  <si>
-    <t>CQUAD4</t>
-  </si>
-  <si>
-    <t>Meshing Method</t>
-  </si>
-  <si>
-    <t>Subdivision</t>
-  </si>
-  <si>
-    <t>Element Size</t>
-  </si>
-  <si>
-    <t>2mm</t>
-  </si>
-  <si>
-    <t>Attempt free mapped meshing</t>
-  </si>
-  <si>
-    <t>Checked</t>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Marc Mentat</t>
+  </si>
+  <si>
+    <t>Edit Coordinate System</t>
+  </si>
+  <si>
+    <t>U Domain</t>
+  </si>
+  <si>
+    <t>0; 10; 1</t>
+  </si>
+  <si>
+    <t>V Domain</t>
   </si>
 </sst>
 </file>
@@ -137,9 +107,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F0B0A2-EC03-4042-828B-335BD011D228}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{175830FE-B5AB-4623-8527-55E14DF5BCE8}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F0B0A2-EC03-4042-828B-335BD011D228}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{175830FE-B5AB-4623-8527-55E14DF5BCE8}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{C99FBFB9-884A-4BF7-BEFD-9F3492952A73}" name="Software"/>
     <tableColumn id="1" xr3:uid="{AB9C58CE-CD25-4D88-B8B5-061D6FA14536}" name="Category"/>
     <tableColumn id="2" xr3:uid="{A270800C-DAC5-4318-AA7D-2AE6CB3856C6}" name="Options"/>
     <tableColumn id="3" xr3:uid="{37997F5C-5255-404E-B1BC-2806BDD8A8F4}" name="Selection"/>
@@ -445,105 +416,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A86F01-F976-4B05-A9FF-75CFF3B8DB35}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA363654-3F7B-40F3-B2D9-96476E79539E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E20C2-44AD-4B7F-9435-D5ECCB0D3A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_Element" sheetId="1" r:id="rId1"/>
+    <sheet name="NX 12" sheetId="2" r:id="rId2"/>
+    <sheet name="Marc Mentat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Selection</t>
   </si>
@@ -52,6 +54,165 @@
   </si>
   <si>
     <t>V Domain</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>Millimeters</t>
+  </si>
+  <si>
+    <t>Stand-alone</t>
+  </si>
+  <si>
+    <t>NT AUTHORITY\SYSTEM</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>basegeometry.prt</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Target Length</t>
+  </si>
+  <si>
+    <t>Curve Divisions</t>
+  </si>
+  <si>
+    <t>Apply Curve Divisions</t>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
+  </si>
+  <si>
+    <t>Pre-Automesh</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Geometry &amp; Mesh</t>
+  </si>
+  <si>
+    <t>Automesh</t>
+  </si>
+  <si>
+    <t>Planar</t>
+  </si>
+  <si>
+    <t>Quadrilaterals (Adv Frnt)</t>
+  </si>
+  <si>
+    <t>Quad Mesh!</t>
+  </si>
+  <si>
+    <t>Enter curve list</t>
+  </si>
+  <si>
+    <t>Tables &amp; Coord. Syst.</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>Boundary Conditions</t>
+  </si>
+  <si>
+    <t>New &gt; 1 Independent Variable</t>
+  </si>
+  <si>
+    <t>New (Structural) &gt; Fixed Displacement</t>
+  </si>
+  <si>
+    <t>fix_x</t>
+  </si>
+  <si>
+    <t>Displacement X</t>
+  </si>
+  <si>
+    <t>Displacement Z</t>
+  </si>
+  <si>
+    <t>Rotation X</t>
+  </si>
+  <si>
+    <t>Rotation Y</t>
+  </si>
+  <si>
+    <t>Rotation Z</t>
+  </si>
+  <si>
+    <t>Add Nodes</t>
+  </si>
+  <si>
+    <t>1 16 17 18 19 20</t>
+  </si>
+  <si>
+    <t>Displacement Y</t>
+  </si>
+  <si>
+    <t>fix_y</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6</t>
+  </si>
+  <si>
+    <t>New (Structural) &gt; Edge Load</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Add Curves</t>
+  </si>
+  <si>
+    <t>2:0 3:0</t>
   </si>
 </sst>
 </file>
@@ -75,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +244,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A86F01-F976-4B05-A9FF-75CFF3B8DB35}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,4 +656,362 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150F9A66-6E38-49DE-BA79-8E34D17B9AC7}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1867EF-D8F5-4FE6-8FF3-EFA596CFA53E}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>D8</f>
+        <v>ramp</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E20C2-44AD-4B7F-9435-D5ECCB0D3A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D61FFF-6FFA-4F6C-9BF3-49D438176195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic_Element" sheetId="1" r:id="rId1"/>
-    <sheet name="NX 12" sheetId="2" r:id="rId2"/>
-    <sheet name="Marc Mentat" sheetId="3" r:id="rId3"/>
+    <sheet name="NX 12" sheetId="2" r:id="rId1"/>
+    <sheet name="Marc Mentat" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,34 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
-  <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Marc Mentat</t>
-  </si>
-  <si>
-    <t>Edit Coordinate System</t>
-  </si>
-  <si>
-    <t>U Domain</t>
-  </si>
-  <si>
-    <t>0; 10; 1</t>
-  </si>
-  <si>
-    <t>V Domain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -149,12 +121,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>Boundary Conditions</t>
   </si>
   <si>
@@ -213,6 +179,108 @@
   </si>
   <si>
     <t>2:0 3:0</t>
+  </si>
+  <si>
+    <t>Geometric Properties</t>
+  </si>
+  <si>
+    <t>New (Structural) &gt; Plane Strain</t>
+  </si>
+  <si>
+    <t>straingeom</t>
+  </si>
+  <si>
+    <t>Add Elements</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Material Properties</t>
+  </si>
+  <si>
+    <t>New &gt; Finite Stiffness Region &gt; Standard</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Loadcases</t>
+  </si>
+  <si>
+    <t>New &gt; Static</t>
+  </si>
+  <si>
+    <t>pressureload</t>
+  </si>
+  <si>
+    <t># Steps</t>
+  </si>
+  <si>
+    <t>Rem Elements</t>
+  </si>
+  <si>
+    <t>Basic Manipulation</t>
+  </si>
+  <si>
+    <t>7 8 9 12 13 14 17 18 19</t>
+  </si>
+  <si>
+    <t>Renumber</t>
+  </si>
+  <si>
+    <t>All Geometry &amp; Mesh</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>New &gt; Structural</t>
+  </si>
+  <si>
+    <t>job_&lt;deleted_element(s)&gt;</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Analysis Options</t>
+  </si>
+  <si>
+    <t>Large Strain</t>
+  </si>
+  <si>
+    <t>Follower Force</t>
+  </si>
+  <si>
+    <t>Job Results</t>
+  </si>
+  <si>
+    <t>Available Element Scalars</t>
+  </si>
+  <si>
+    <t>Equivalent Von Mises Stress</t>
+  </si>
+  <si>
+    <t>Total Strain Energy Density</t>
+  </si>
+  <si>
+    <t>Independent Variable V1</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Function Value F</t>
   </si>
 </sst>
 </file>
@@ -236,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,15 +327,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,19 +402,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5F0B0A2-EC03-4042-828B-335BD011D228}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{175830FE-B5AB-4623-8527-55E14DF5BCE8}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{C99FBFB9-884A-4BF7-BEFD-9F3492952A73}" name="Software"/>
-    <tableColumn id="1" xr3:uid="{AB9C58CE-CD25-4D88-B8B5-061D6FA14536}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{A270800C-DAC5-4318-AA7D-2AE6CB3856C6}" name="Options"/>
-    <tableColumn id="3" xr3:uid="{37997F5C-5255-404E-B1BC-2806BDD8A8F4}" name="Selection"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,71 +700,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A86F01-F976-4B05-A9FF-75CFF3B8DB35}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150F9A66-6E38-49DE-BA79-8E34D17B9AC7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -678,48 +719,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -727,291 +768,572 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1867EF-D8F5-4FE6-8FF3-EFA596CFA53E}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>52</v>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F16" s="1" t="str">
         <f>D8</f>
         <v>ramp</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f>D25</f>
+        <v>pressureload</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Records/Specifications.xlsx
+++ b/Records/Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19673418\Documents\Masters-Project\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D61FFF-6FFA-4F6C-9BF3-49D438176195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284AF9D-3C2A-44EF-A783-604B737F0D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8D677AAA-6C72-497D-9546-51779F3FB76C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>New (Structural) &gt; Fixed Displacement</t>
   </si>
   <si>
-    <t>fix_x</t>
-  </si>
-  <si>
     <t>Displacement X</t>
   </si>
   <si>
@@ -151,18 +148,9 @@
     <t>Add Nodes</t>
   </si>
   <si>
-    <t>1 16 17 18 19 20</t>
-  </si>
-  <si>
     <t>Displacement Y</t>
   </si>
   <si>
-    <t>fix_y</t>
-  </si>
-  <si>
-    <t>1 2 3 4 5 6</t>
-  </si>
-  <si>
     <t>New (Structural) &gt; Edge Load</t>
   </si>
   <si>
@@ -281,6 +269,45 @@
   </si>
   <si>
     <t>Function Value F</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Model Plot</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Deformed &amp; Original</t>
+  </si>
+  <si>
+    <t>Scalar Plot</t>
+  </si>
+  <si>
+    <t>Contour Bands</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Base File Name</t>
+  </si>
+  <si>
+    <t>baseelement_&lt;deleted_element(s)&gt;</t>
+  </si>
+  <si>
+    <t>Make GIF Movie</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 16 17 18 19 20</t>
+  </si>
+  <si>
+    <t>fix</t>
   </si>
 </sst>
 </file>
@@ -304,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -353,11 +380,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -369,23 +422,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1867EF-D8F5-4FE6-8FF3-EFA596CFA53E}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,32 +871,32 @@
     <col min="1" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -829,19 +921,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="3"/>
@@ -864,24 +956,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -894,23 +986,23 @@
       <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>83</v>
+      <c r="F8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -923,38 +1015,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -968,12 +1060,14 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
@@ -987,352 +1081,411 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2">
         <v>-1</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F15" s="1" t="str">
         <f>D8</f>
         <v>ramp</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f>D24</f>
+        <v>pressureload</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="17" t="str">
+        <f>I34</f>
+        <v>Total Strain Energy Density</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f>D25</f>
-        <v>pressureload</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="24"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="25"/>
+      <c r="H41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
